--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-department-ssmix-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_Department_SsMix_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_Department_SsMix_VS</t>
   </si>
   <si>
     <t>Version</t>
@@ -103,10 +103,10 @@
     <t>ValueSet URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_Department_SsMix2Digits_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_Department_SsMix3Digits_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_Department_SsMix2Digits_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_Department_SsMix3Digits_VS</t>
   </si>
 </sst>
 </file>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-department-ssmix-vs.xlsx
@@ -79,7 +79,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-department-ssmix-vs.xlsx
@@ -79,7 +79,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-department-ssmix-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -357,15 +360,15 @@
         <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -387,12 +390,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -414,12 +417,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-department-ssmix-vs.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
-    <sheet name="Include ValueSets 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -103,13 +102,19 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>ValueSet URL</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_Department_SsMix2Digits_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_Department_SsMix3Digits_VS</t>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.2</t>
   </si>
 </sst>
 </file>
@@ -378,7 +383,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,31 +403,20 @@
         <v>30</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>31</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-department-ssmix-vs.xlsx
@@ -93,7 +93,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+    <t>Copyright Japan Association of Medical Informatics (JAMI)  一般社団法人日本医療情報学会</t>
   </si>
   <si>
     <t>Immutable</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-department-ssmix-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from JP Core Departme" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-department-ssmix-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP Core Departme" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
